--- a/menu-sample.xlsx
+++ b/menu-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>menu (Texto para o usuário. Digitar sempre em maiusculas/minúsculas)</t>
   </si>
@@ -80,158 +80,47 @@
 Deixar em branco se não houver.</t>
   </si>
   <si>
-    <t>Para a Mamãe</t>
-  </si>
-  <si>
-    <t>Amamentação</t>
-  </si>
-  <si>
-    <t>/para-a-mame/amamentacao</t>
-  </si>
-  <si>
-    <t>Absorventes para Seios</t>
-  </si>
-  <si>
-    <t>/para-a-mame/amamentacao/absorvente-para-seios</t>
-  </si>
-  <si>
-    <t>Bombas de Leite</t>
-  </si>
-  <si>
-    <t>/para-a-mame/amamentacao/bombas-de-leite</t>
-  </si>
-  <si>
-    <t>Conchas para Amamentação</t>
-  </si>
-  <si>
-    <t>/para-a-mame/amamentacao/conchas-para-amamentacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protetores de Mamilos </t>
-  </si>
-  <si>
-    <t>/para-a-mame/amamentacao/protetores-de-mamilo</t>
-  </si>
-  <si>
-    <t>Cosméticos</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/cosmeticos</t>
-  </si>
-  <si>
-    <t>Lingeries</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/lingeries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcinhas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modeladores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sutiãs de Amamentação </t>
-  </si>
-  <si>
-    <t>/para-a-mamae/lingeries/calcinhas</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/lingeries/modeladores</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/lingeries/sutias-de-amamentacao</t>
-  </si>
-  <si>
-    <t>Malas e Bolsas</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/malas-e-bolsas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolsas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frasqueiras </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porta Trekos </t>
-  </si>
-  <si>
-    <t>/para-a-mamae/malas-e-bolsas/bolsas</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/malas-e-bolsas/frasqueiras</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/malas-e-bolsas/malas</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/malas-e-bolsas/porta-trekos</t>
-  </si>
-  <si>
-    <t>Roupas e Acessórios</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/roupas-e-acessorios</t>
-  </si>
-  <si>
-    <t>Batas para Gestantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermudas </t>
-  </si>
-  <si>
-    <t>Blazers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blusas e Camisetas </t>
-  </si>
-  <si>
-    <t>Calças para Gestantes</t>
-  </si>
-  <si>
-    <t>Camisas para Gestante</t>
-  </si>
-  <si>
-    <t>Vestidos para Gestantes</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/roupas-e-acessorios/batas-para-gestantes</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/roupas-e-acessorios/bermudas</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/roupas-e-acessorios/blazers</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/roupas-e-acessorios/blusas-e-camisetas</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/roupas-e-acessorios/camisas-para-gestante</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/roupas-e-acessorios/calcas-para-gestante</t>
-  </si>
-  <si>
-    <t>/para-a-mamae/roupas-e-acessorios/vestidos-para-gestante</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
     <t>sim</t>
+  </si>
+  <si>
+    <t>submenu 1</t>
+  </si>
+  <si>
+    <t>/submenu1-link</t>
+  </si>
+  <si>
+    <t>submenu 2</t>
+  </si>
+  <si>
+    <t>submenu 3</t>
+  </si>
+  <si>
+    <t>/submenu2-link</t>
+  </si>
+  <si>
+    <t>/submenu3-link</t>
+  </si>
+  <si>
+    <t>/submenu4-link</t>
+  </si>
+  <si>
+    <t>/submenu5-link</t>
+  </si>
+  <si>
+    <t>/submenu6-link</t>
+  </si>
+  <si>
+    <t>/submenu7-link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,18 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,47 +153,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
-        <bgColor rgb="FFB8CCE4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -343,17 +193,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -418,8 +266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G25" tableType="xml" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G12" tableType="xml" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G12">
     <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="7">
@@ -734,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -771,81 +619,77 @@
         <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -854,421 +698,293 @@
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>59</v>
-      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:6">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1"/>
@@ -1277,148 +993,10 @@
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
